--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_4.xlsx
@@ -478,187 +478,187 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_23</t>
+          <t>model_11_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.05849019356288365</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.815791422442953</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.564399241346645</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.65444252450998</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F2" t="n">
-        <v>1.171436667442322</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>2.923047065734863</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H2" t="n">
-        <v>4.757265567779541</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I2" t="n">
-        <v>3.786206960678101</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_24</t>
+          <t>model_11_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05460455646634554</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.612468301000459</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.642749840786737</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.64458794348724</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F3" t="n">
-        <v>1.167136430740356</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>2.767293453216553</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H3" t="n">
-        <v>4.902615070343018</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I3" t="n">
-        <v>3.772150754928589</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_22</t>
+          <t>model_11_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02546524101106984</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.835905718628181</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.403083284833341</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.56142925094913</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F4" t="n">
-        <v>1.13488781452179</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>2.93845534324646</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H4" t="n">
-        <v>4.458004951477051</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I4" t="n">
-        <v>3.653535842895508</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_21</t>
+          <t>model_11_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01364479910308902</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.810561500844404</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.365150810229277</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.531006755601914</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F5" t="n">
-        <v>1.121806025505066</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>2.919040679931641</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H5" t="n">
-        <v>4.387636184692383</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I5" t="n">
-        <v>3.610142469406128</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_20</t>
+          <t>model_11_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04880020195517909</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.798821013322014</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.091421325078588</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.360134632877922</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F6" t="n">
-        <v>1.052697896957397</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>2.910047054290771</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H6" t="n">
-        <v>3.87983512878418</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I6" t="n">
-        <v>3.366415977478027</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_13</t>
+          <t>model_11_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1438324165318053</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.29409094906913</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.051805207730079</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9080576982832547</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9475251436233521</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>1.757364273071289</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H7" t="n">
-        <v>3.806342601776123</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I7" t="n">
-        <v>2.721588850021362</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="8">
@@ -668,586 +668,586 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1964248173698659</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.514004405452231</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5798299425770062</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9660393752121283</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8893209099769592</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>2.691866397857666</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H8" t="n">
-        <v>2.930772304534912</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I8" t="n">
-        <v>2.80429220199585</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_18</t>
+          <t>model_11_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1965149083419047</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.717831139520798</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4923671057498578</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9704608374704609</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8892213106155396</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>2.848005533218384</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H9" t="n">
-        <v>2.768518447875977</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I9" t="n">
-        <v>2.810598373413086</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_19</t>
+          <t>model_11_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1983287389613858</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.721891412418963</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4892061962371426</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9696803670722607</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8872138261795044</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>2.851115703582764</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H10" t="n">
-        <v>2.762654542922974</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I10" t="n">
-        <v>2.809485197067261</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_12</t>
+          <t>model_11_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.204255780156305</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.316891077729788</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7644631495023102</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.73867346488796</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8806543946266174</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>1.774830102920532</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H11" t="n">
-        <v>3.27328896522522</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I11" t="n">
-        <v>2.479984760284424</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_11</t>
+          <t>model_11_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2190695577369015</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.314929882881398</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7000958938989466</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6987224061799027</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8642598390579224</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>1.773327589035034</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15388011932373</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I12" t="n">
-        <v>2.422999858856201</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_10</t>
+          <t>model_11_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2234352801708818</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.317231176840771</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.675534920283364</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6843440853468898</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8594282865524292</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>1.77509069442749</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H13" t="n">
-        <v>3.108316421508789</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I13" t="n">
-        <v>2.402491092681885</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_9</t>
+          <t>model_11_4_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328196975851928</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.274633286775655</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6517196033575354</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6576570132117301</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8490424752235413</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>1.742458939552307</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H14" t="n">
-        <v>3.064136028289795</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I14" t="n">
-        <v>2.364425659179688</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_16</t>
+          <t>model_11_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2505406789987051</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.945812920569564</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5860234936913487</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8082808710889868</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8294305801391602</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>2.256609201431274</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H15" t="n">
-        <v>2.942261934280396</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I15" t="n">
-        <v>2.579270839691162</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_8</t>
+          <t>model_11_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2579314071499239</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.209788718314902</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5249102693734471</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5616056554576188</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8212513327598572</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>1.692785382270813</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H16" t="n">
-        <v>2.828889846801758</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I16" t="n">
-        <v>2.227421283721924</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_14</t>
+          <t>model_11_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2614203720574121</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.00454200008519</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7989658929865586</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6709829077117524</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8173900246620178</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>1.535558342933655</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H17" t="n">
-        <v>3.337295532226562</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38343334197998</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_15</t>
+          <t>model_11_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2637982645776071</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.812631767652894</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.587709893597768</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7714449240090746</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8147584199905396</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>2.154587268829346</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H18" t="n">
-        <v>2.945390701293945</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I18" t="n">
-        <v>2.526728868484497</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_7</t>
+          <t>model_11_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2848270824804405</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.36882526322867</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3131251168645528</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4772019222753434</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7914856672286987</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>1.814613819122314</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4360032081604</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I19" t="n">
-        <v>2.107030868530273</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_6</t>
+          <t>model_11_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.391528197935137</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9232315840334751</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07451509437098669</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2044714309513447</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6733989715576172</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>1.473271250724792</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H20" t="n">
-        <v>1.993353128433228</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I20" t="n">
-        <v>1.718017339706421</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_5</t>
+          <t>model_11_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4054175156887729</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.047552317871237</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05279191579975406</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1619002742225695</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6580276489257812</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>1.568506002426147</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H21" t="n">
-        <v>1.75718355178833</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I21" t="n">
-        <v>1.657295227050781</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_4</t>
+          <t>model_11_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4573717439956128</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.578013563774283</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5485100449496534</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.009322617965683122</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6005295515060425</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>1.974860310554504</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8375675082206726</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I22" t="n">
-        <v>1.439663648605347</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_3</t>
+          <t>model_11_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4829073541499785</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6501351107574691</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3943506511524183</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E23" t="n">
-        <v>0.160143421726159</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5722691416740417</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>1.264068603515625</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H23" t="n">
-        <v>1.123551607131958</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I23" t="n">
-        <v>1.197943091392517</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_2</t>
+          <t>model_11_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5191480660052277</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5215061800066084</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06885384794316463</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2940512855430454</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5321614146232605</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>0.366545170545578</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H24" t="n">
-        <v>1.727386713027954</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I24" t="n">
-        <v>1.006941437721252</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_1</t>
+          <t>model_11_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.530973749495305</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6034458222683949</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09183340682181795</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3314130721991672</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5190738439559937</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3037761449813843</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H25" t="n">
-        <v>1.684756994247437</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9536498785018921</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_11_4_0</t>
+          <t>model_11_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6877907597364861</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8425191565405163</v>
+        <v>0.1470374151965793</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9024845718582983</v>
+        <v>-0.8846158281072964</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8955405513253091</v>
+        <v>0.1124530814274172</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3455236256122589</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1206365451216698</v>
+        <v>1.177122116088867</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1809027194976807</v>
+        <v>0.2151760458946228</v>
       </c>
       <c r="I26" t="n">
-        <v>0.14899742603302</v>
+        <v>0.7244416475296021</v>
       </c>
     </row>
   </sheetData>
